--- a/data/pracownicy.xlsx
+++ b/data/pracownicy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\analiza-danych-R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86ACB8A-E0B6-440B-A345-D38F3F4BF40D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2424F7B2-B2A4-4A8F-A642-548FCCE8977A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pracownicy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -54,14 +54,11 @@
   <si>
     <t>wiek</t>
   </si>
-  <si>
-    <t>NA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,11 +912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16128,9 +16125,6 @@
       <c r="B435">
         <v>0</v>
       </c>
-      <c r="C435" t="s">
-        <v>11</v>
-      </c>
       <c r="D435">
         <v>16</v>
       </c>
@@ -16151,9 +16145,6 @@
       </c>
       <c r="J435">
         <v>0</v>
-      </c>
-      <c r="K435" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
